--- a/data/7148.xlsx
+++ b/data/7148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43023,6 +43023,41 @@
         <v>361200</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7148</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>DPHARMA</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>634800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7148.xlsx
+++ b/data/7148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43058,6 +43058,41 @@
         <v>634800</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7148</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>DPHARMA</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>163100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7148.xlsx
+++ b/data/7148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43093,6 +43093,41 @@
         <v>163100</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7148</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>DPHARMA</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>889000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7148.xlsx
+++ b/data/7148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43128,6 +43128,41 @@
         <v>889000</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7148</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>DPHARMA</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>1182800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7148.xlsx
+++ b/data/7148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43163,6 +43163,41 @@
         <v>1182800</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7148</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>DPHARMA</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>303300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7148.xlsx
+++ b/data/7148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43198,6 +43198,41 @@
         <v>303300</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7148</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>DPHARMA</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>495100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7148.xlsx
+++ b/data/7148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43233,6 +43233,41 @@
         <v>495100</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7148</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>DPHARMA</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>702500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7148.xlsx
+++ b/data/7148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43268,6 +43268,41 @@
         <v>702500</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7148</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>DPHARMA</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>638200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7148.xlsx
+++ b/data/7148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43303,6 +43303,41 @@
         <v>638200</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7148</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>DPHARMA</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>1188200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7148.xlsx
+++ b/data/7148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43338,6 +43338,41 @@
         <v>1188200</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7148</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>DPHARMA</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>2550200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7148.xlsx
+++ b/data/7148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43373,6 +43373,41 @@
         <v>2550200</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7148</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>DPHARMA</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>667900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7148.xlsx
+++ b/data/7148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43408,6 +43408,41 @@
         <v>667900</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7148</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>DPHARMA</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>797600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7148.xlsx
+++ b/data/7148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43443,6 +43443,76 @@
         <v>797600</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7148</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>DPHARMA</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>260500</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7148</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>DPHARMA</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>2168000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7148.xlsx
+++ b/data/7148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43513,6 +43513,76 @@
         <v>2168000</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7148</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>DPHARMA</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>1002100</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7148</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>DPHARMA</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>2433300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7148.xlsx
+++ b/data/7148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43583,6 +43583,41 @@
         <v>2433300</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7148</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>DPHARMA</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>1516400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7148.xlsx
+++ b/data/7148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43618,6 +43618,41 @@
         <v>1516400</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7148</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>DPHARMA</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>657700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7148.xlsx
+++ b/data/7148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43653,6 +43653,41 @@
         <v>657700</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7148</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>DPHARMA</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>1096200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7148.xlsx
+++ b/data/7148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43688,6 +43688,41 @@
         <v>1096200</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7148</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>DPHARMA</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>1167800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7148.xlsx
+++ b/data/7148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43723,6 +43723,76 @@
         <v>1167800</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>7148</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>DPHARMA</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>1329600</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>7148</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>DPHARMA</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>822400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7148.xlsx
+++ b/data/7148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43793,6 +43793,41 @@
         <v>822400</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>7148</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>DPHARMA</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>2433100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7148.xlsx
+++ b/data/7148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43828,6 +43828,41 @@
         <v>2433100</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>7148</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>DPHARMA</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>3644800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7148.xlsx
+++ b/data/7148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2435"/>
+  <dimension ref="A1:I2436"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85653,6 +85653,41 @@
         <v>3644800</v>
       </c>
     </row>
+    <row r="2436">
+      <c r="A2436" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2436" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2436" t="inlineStr">
+        <is>
+          <t>7148</t>
+        </is>
+      </c>
+      <c r="D2436" t="inlineStr">
+        <is>
+          <t>DPHARMA</t>
+        </is>
+      </c>
+      <c r="E2436" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F2436" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G2436" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H2436" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="I2436" t="n">
+        <v>3821700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7148.xlsx
+++ b/data/7148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2436"/>
+  <dimension ref="A1:I2437"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85688,6 +85688,41 @@
         <v>3821700</v>
       </c>
     </row>
+    <row r="2437">
+      <c r="A2437" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2437" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2437" t="inlineStr">
+        <is>
+          <t>7148</t>
+        </is>
+      </c>
+      <c r="D2437" t="inlineStr">
+        <is>
+          <t>DPHARMA</t>
+        </is>
+      </c>
+      <c r="E2437" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F2437" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="G2437" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H2437" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="I2437" t="n">
+        <v>4158000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7148.xlsx
+++ b/data/7148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2437"/>
+  <dimension ref="A1:I2438"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85723,6 +85723,41 @@
         <v>4158000</v>
       </c>
     </row>
+    <row r="2438">
+      <c r="A2438" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2438" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2438" t="inlineStr">
+        <is>
+          <t>7148</t>
+        </is>
+      </c>
+      <c r="D2438" t="inlineStr">
+        <is>
+          <t>DPHARMA</t>
+        </is>
+      </c>
+      <c r="E2438" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="F2438" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="G2438" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="H2438" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="I2438" t="n">
+        <v>1646500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7148.xlsx
+++ b/data/7148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2438"/>
+  <dimension ref="A1:I2439"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85758,6 +85758,41 @@
         <v>1646500</v>
       </c>
     </row>
+    <row r="2439">
+      <c r="A2439" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2439" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2439" t="inlineStr">
+        <is>
+          <t>7148</t>
+        </is>
+      </c>
+      <c r="D2439" t="inlineStr">
+        <is>
+          <t>DPHARMA</t>
+        </is>
+      </c>
+      <c r="E2439" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F2439" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="G2439" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H2439" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="I2439" t="n">
+        <v>2500800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7148.xlsx
+++ b/data/7148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2439"/>
+  <dimension ref="A1:I2440"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85793,6 +85793,41 @@
         <v>2500800</v>
       </c>
     </row>
+    <row r="2440">
+      <c r="A2440" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2440" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2440" t="inlineStr">
+        <is>
+          <t>7148</t>
+        </is>
+      </c>
+      <c r="D2440" t="inlineStr">
+        <is>
+          <t>DPHARMA</t>
+        </is>
+      </c>
+      <c r="E2440" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F2440" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G2440" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H2440" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="I2440" t="n">
+        <v>639600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7148.xlsx
+++ b/data/7148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2440"/>
+  <dimension ref="A1:I2441"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85828,6 +85828,41 @@
         <v>639600</v>
       </c>
     </row>
+    <row r="2441">
+      <c r="A2441" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2441" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2441" t="inlineStr">
+        <is>
+          <t>7148</t>
+        </is>
+      </c>
+      <c r="D2441" t="inlineStr">
+        <is>
+          <t>DPHARMA</t>
+        </is>
+      </c>
+      <c r="E2441" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F2441" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G2441" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H2441" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="I2441" t="n">
+        <v>1930200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7148.xlsx
+++ b/data/7148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2441"/>
+  <dimension ref="A1:I2442"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85863,6 +85863,41 @@
         <v>1930200</v>
       </c>
     </row>
+    <row r="2442">
+      <c r="A2442" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2442" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2442" t="inlineStr">
+        <is>
+          <t>7148</t>
+        </is>
+      </c>
+      <c r="D2442" t="inlineStr">
+        <is>
+          <t>DPHARMA</t>
+        </is>
+      </c>
+      <c r="E2442" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="F2442" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G2442" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="H2442" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I2442" t="n">
+        <v>551400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7148.xlsx
+++ b/data/7148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2442"/>
+  <dimension ref="A1:I2443"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85898,6 +85898,41 @@
         <v>551400</v>
       </c>
     </row>
+    <row r="2443">
+      <c r="A2443" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2443" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2443" t="inlineStr">
+        <is>
+          <t>7148</t>
+        </is>
+      </c>
+      <c r="D2443" t="inlineStr">
+        <is>
+          <t>DPHARMA</t>
+        </is>
+      </c>
+      <c r="E2443" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="F2443" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G2443" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="H2443" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="I2443" t="n">
+        <v>721500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7148.xlsx
+++ b/data/7148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2443"/>
+  <dimension ref="A1:I2444"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85933,6 +85933,41 @@
         <v>721500</v>
       </c>
     </row>
+    <row r="2444">
+      <c r="A2444" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2444" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2444" t="inlineStr">
+        <is>
+          <t>7148</t>
+        </is>
+      </c>
+      <c r="D2444" t="inlineStr">
+        <is>
+          <t>DPHARMA</t>
+        </is>
+      </c>
+      <c r="E2444" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="F2444" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G2444" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="H2444" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I2444" t="n">
+        <v>863300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7148.xlsx
+++ b/data/7148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2444"/>
+  <dimension ref="A1:I2445"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85968,6 +85968,41 @@
         <v>863300</v>
       </c>
     </row>
+    <row r="2445">
+      <c r="A2445" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2445" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2445" t="inlineStr">
+        <is>
+          <t>7148</t>
+        </is>
+      </c>
+      <c r="D2445" t="inlineStr">
+        <is>
+          <t>DPHARMA</t>
+        </is>
+      </c>
+      <c r="E2445" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="F2445" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G2445" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H2445" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="I2445" t="n">
+        <v>768500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7148.xlsx
+++ b/data/7148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2445"/>
+  <dimension ref="A1:I2446"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86003,6 +86003,41 @@
         <v>768500</v>
       </c>
     </row>
+    <row r="2446">
+      <c r="A2446" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2446" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2446" t="inlineStr">
+        <is>
+          <t>7148</t>
+        </is>
+      </c>
+      <c r="D2446" t="inlineStr">
+        <is>
+          <t>DPHARMA</t>
+        </is>
+      </c>
+      <c r="E2446" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="F2446" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G2446" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H2446" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="I2446" t="n">
+        <v>3400400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7148.xlsx
+++ b/data/7148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2446"/>
+  <dimension ref="A1:I2447"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86038,6 +86038,41 @@
         <v>3400400</v>
       </c>
     </row>
+    <row r="2447">
+      <c r="A2447" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2447" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2447" t="inlineStr">
+        <is>
+          <t>7148</t>
+        </is>
+      </c>
+      <c r="D2447" t="inlineStr">
+        <is>
+          <t>DPHARMA</t>
+        </is>
+      </c>
+      <c r="E2447" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F2447" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G2447" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H2447" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="I2447" t="n">
+        <v>627200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7148.xlsx
+++ b/data/7148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2447"/>
+  <dimension ref="A1:I2448"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86073,6 +86073,41 @@
         <v>627200</v>
       </c>
     </row>
+    <row r="2448">
+      <c r="A2448" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2448" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2448" t="inlineStr">
+        <is>
+          <t>7148</t>
+        </is>
+      </c>
+      <c r="D2448" t="inlineStr">
+        <is>
+          <t>DPHARMA</t>
+        </is>
+      </c>
+      <c r="E2448" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F2448" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G2448" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H2448" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I2448" t="n">
+        <v>932700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7148.xlsx
+++ b/data/7148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2448"/>
+  <dimension ref="A1:I2449"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86108,6 +86108,41 @@
         <v>932700</v>
       </c>
     </row>
+    <row r="2449">
+      <c r="A2449" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2449" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2449" t="inlineStr">
+        <is>
+          <t>7148</t>
+        </is>
+      </c>
+      <c r="D2449" t="inlineStr">
+        <is>
+          <t>DPHARMA</t>
+        </is>
+      </c>
+      <c r="E2449" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F2449" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G2449" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H2449" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I2449" t="n">
+        <v>717000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7148.xlsx
+++ b/data/7148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2449"/>
+  <dimension ref="A1:I2450"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86143,6 +86143,41 @@
         <v>717000</v>
       </c>
     </row>
+    <row r="2450">
+      <c r="A2450" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2450" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2450" t="inlineStr">
+        <is>
+          <t>7148</t>
+        </is>
+      </c>
+      <c r="D2450" t="inlineStr">
+        <is>
+          <t>DPHARMA</t>
+        </is>
+      </c>
+      <c r="E2450" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F2450" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G2450" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="H2450" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="I2450" t="n">
+        <v>257200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
